--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05840758140714978</v>
+        <v>0.07070652293252117</v>
       </c>
       <c r="C2">
-        <v>0.4409791216474546</v>
+        <v>0.5389307429724479</v>
       </c>
       <c r="D2">
-        <v>0.2667866710384161</v>
+        <v>0.5493865132072634</v>
       </c>
       <c r="E2">
-        <v>0.516513960158306</v>
+        <v>0.7412061205948474</v>
       </c>
       <c r="F2">
-        <v>0.5247350061034883</v>
+        <v>0.7544083569534742</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05340109584861563</v>
+        <v>0.5139408026494205</v>
       </c>
       <c r="C3">
-        <v>0.4540875107102993</v>
+        <v>0.8198603642297517</v>
       </c>
       <c r="D3">
-        <v>0.3529642137760092</v>
+        <v>4.018785774733372</v>
       </c>
       <c r="E3">
-        <v>0.5941079142512824</v>
+        <v>2.00469094244808</v>
       </c>
       <c r="F3">
-        <v>0.6056274121084158</v>
+        <v>1.981241167464397</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.007645369755567248</v>
+        <v>0.1593057168417592</v>
       </c>
       <c r="C4">
-        <v>0.3509924135764588</v>
+        <v>1.252584888744187</v>
       </c>
       <c r="D4">
-        <v>0.1959930255899154</v>
+        <v>7.214834311089271</v>
       </c>
       <c r="E4">
-        <v>0.4427109955602135</v>
+        <v>2.686044361340533</v>
       </c>
       <c r="F4">
-        <v>0.4535761265838148</v>
+        <v>2.741577913210072</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02282081712085722</v>
+        <v>0.06397655328083163</v>
       </c>
       <c r="C5">
-        <v>0.438926864498886</v>
+        <v>1.169503564658112</v>
       </c>
       <c r="D5">
-        <v>0.2988641407746598</v>
+        <v>7.127017457775117</v>
       </c>
       <c r="E5">
-        <v>0.5466846813060156</v>
+        <v>2.669647440726044</v>
       </c>
       <c r="F5">
-        <v>0.5603977451029019</v>
+        <v>2.72886308780219</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05378243244753005</v>
+        <v>0.1808419384718491</v>
       </c>
       <c r="C6">
-        <v>0.3326390093669921</v>
+        <v>1.300779946212724</v>
       </c>
       <c r="D6">
-        <v>0.1611897605005107</v>
+        <v>7.245579745324931</v>
       </c>
       <c r="E6">
-        <v>0.4014844461501724</v>
+        <v>2.69176145773078</v>
       </c>
       <c r="F6">
-        <v>0.4087682716779366</v>
+        <v>2.746039682128507</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04139547620532348</v>
+        <v>0.0139830039049362</v>
       </c>
       <c r="C7">
-        <v>0.4699317255372737</v>
+        <v>1.280086512400622</v>
       </c>
       <c r="D7">
-        <v>0.3299399826863903</v>
+        <v>7.347913688368553</v>
       </c>
       <c r="E7">
-        <v>0.5744040239120808</v>
+        <v>2.7107035412174</v>
       </c>
       <c r="F7">
-        <v>0.5895200016688675</v>
+        <v>2.771588958204612</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06403854691678806</v>
+        <v>0.08558710616064751</v>
       </c>
       <c r="C8">
-        <v>0.3447545510297237</v>
+        <v>1.381672574370687</v>
       </c>
       <c r="D8">
-        <v>0.1811657263351024</v>
+        <v>7.474441480762519</v>
       </c>
       <c r="E8">
-        <v>0.4256356732407452</v>
+        <v>2.733942479417319</v>
       </c>
       <c r="F8">
-        <v>0.433741098204484</v>
+        <v>2.794016948153321</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01705099803388278</v>
+        <v>0.007662648018172074</v>
       </c>
       <c r="C9">
-        <v>0.4958185116486777</v>
+        <v>1.301085017076876</v>
       </c>
       <c r="D9">
-        <v>0.3544335827135318</v>
+        <v>7.361559590561332</v>
       </c>
       <c r="E9">
-        <v>0.595343247810481</v>
+        <v>2.71321941437867</v>
       </c>
       <c r="F9">
-        <v>0.6146156272486235</v>
+        <v>2.774187187356896</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.09222482928079613</v>
+        <v>0.02684109616273803</v>
       </c>
       <c r="C10">
-        <v>0.3912634163754893</v>
+        <v>1.376516876497369</v>
       </c>
       <c r="D10">
-        <v>0.2043861243708806</v>
+        <v>7.472336615944717</v>
       </c>
       <c r="E10">
-        <v>0.4520908364155158</v>
+        <v>2.733557501854445</v>
       </c>
       <c r="F10">
-        <v>0.4581180897763877</v>
+        <v>2.794858688447044</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04709042285721132</v>
+        <v>-0.129800971266693</v>
       </c>
       <c r="C11">
-        <v>0.5134958965465208</v>
+        <v>1.190418128082351</v>
       </c>
       <c r="D11">
-        <v>0.3757393732061757</v>
+        <v>7.078916754308191</v>
       </c>
       <c r="E11">
-        <v>0.6129758341127125</v>
+        <v>2.660623377013025</v>
       </c>
       <c r="F11">
-        <v>0.6342352217094142</v>
+        <v>2.717180813652833</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.07070652293252117</v>
+        <v>0.05840758140714978</v>
       </c>
       <c r="C2">
-        <v>0.5389307429724479</v>
+        <v>0.4409791216474546</v>
       </c>
       <c r="D2">
-        <v>0.5493865132072634</v>
+        <v>0.2667866710384161</v>
       </c>
       <c r="E2">
-        <v>0.7412061205948474</v>
+        <v>0.516513960158306</v>
       </c>
       <c r="F2">
-        <v>0.7544083569534742</v>
+        <v>0.5247350061034883</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5139408026494205</v>
+        <v>0.04755880890717359</v>
       </c>
       <c r="C3">
-        <v>0.8198603642297517</v>
+        <v>0.5329826934417879</v>
       </c>
       <c r="D3">
-        <v>4.018785774733372</v>
+        <v>0.5613959449393942</v>
       </c>
       <c r="E3">
-        <v>2.00469094244808</v>
+        <v>0.749263601771362</v>
       </c>
       <c r="F3">
-        <v>1.981241167464397</v>
+        <v>0.7645582327128724</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1593057168417592</v>
+        <v>0.5041968073251691</v>
       </c>
       <c r="C4">
-        <v>1.252584888744187</v>
+        <v>0.8176875864659832</v>
       </c>
       <c r="D4">
-        <v>7.214834311089271</v>
+        <v>4.040021400480529</v>
       </c>
       <c r="E4">
-        <v>2.686044361340533</v>
+        <v>2.009980447785632</v>
       </c>
       <c r="F4">
-        <v>2.741577913210072</v>
+        <v>1.98944442380694</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06397655328083163</v>
+        <v>0.1550513310109709</v>
       </c>
       <c r="C5">
-        <v>1.169503564658112</v>
+        <v>1.247131068598841</v>
       </c>
       <c r="D5">
-        <v>7.127017457775117</v>
+        <v>7.211909333362784</v>
       </c>
       <c r="E5">
-        <v>2.669647440726044</v>
+        <v>2.685499829335832</v>
       </c>
       <c r="F5">
-        <v>2.72886308780219</v>
+        <v>2.741275197758698</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1808419384718491</v>
+        <v>0.06215009439971476</v>
       </c>
       <c r="C6">
-        <v>1.300779946212724</v>
+        <v>1.169868415477642</v>
       </c>
       <c r="D6">
-        <v>7.245579745324931</v>
+        <v>7.120640959472445</v>
       </c>
       <c r="E6">
-        <v>2.69176145773078</v>
+        <v>2.668452914981347</v>
       </c>
       <c r="F6">
-        <v>2.746039682128507</v>
+        <v>2.727685511402118</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0139830039049362</v>
+        <v>0.1800417658608053</v>
       </c>
       <c r="C7">
-        <v>1.280086512400622</v>
+        <v>1.300679498311106</v>
       </c>
       <c r="D7">
-        <v>7.347913688368553</v>
+        <v>7.248419567119259</v>
       </c>
       <c r="E7">
-        <v>2.7107035412174</v>
+        <v>2.692288908553326</v>
       </c>
       <c r="F7">
-        <v>2.771588958204612</v>
+        <v>2.7466351660821</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08558710616064751</v>
+        <v>0.01362888296484679</v>
       </c>
       <c r="C8">
-        <v>1.381672574370687</v>
+        <v>1.27992735595733</v>
       </c>
       <c r="D8">
-        <v>7.474441480762519</v>
+        <v>7.348708252423751</v>
       </c>
       <c r="E8">
-        <v>2.733942479417319</v>
+        <v>2.710850097741251</v>
       </c>
       <c r="F8">
-        <v>2.794016948153321</v>
+        <v>2.771740654578703</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007662648018172074</v>
+        <v>0.08542880453419803</v>
       </c>
       <c r="C9">
-        <v>1.301085017076876</v>
+        <v>1.381444734124759</v>
       </c>
       <c r="D9">
-        <v>7.361559590561332</v>
+        <v>7.473256470929509</v>
       </c>
       <c r="E9">
-        <v>2.71321941437867</v>
+        <v>2.733725749033635</v>
       </c>
       <c r="F9">
-        <v>2.774187187356896</v>
+        <v>2.793800303403652</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02684109616273803</v>
+        <v>0.007591499017025043</v>
       </c>
       <c r="C10">
-        <v>1.376516876497369</v>
+        <v>1.301026266972584</v>
       </c>
       <c r="D10">
-        <v>7.472336615944717</v>
+        <v>7.361617303534813</v>
       </c>
       <c r="E10">
-        <v>2.733557501854445</v>
+        <v>2.713230049873179</v>
       </c>
       <c r="F10">
-        <v>2.794858688447044</v>
+        <v>2.774198266425014</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.129800971266693</v>
+        <v>0.02680902062944027</v>
       </c>
       <c r="C11">
-        <v>1.190418128082351</v>
+        <v>1.376487127339883</v>
       </c>
       <c r="D11">
-        <v>7.078916754308191</v>
+        <v>7.472110267386162</v>
       </c>
       <c r="E11">
-        <v>2.660623377013025</v>
+        <v>2.733516099712267</v>
       </c>
       <c r="F11">
-        <v>2.717180813652833</v>
+        <v>2.794816675622101</v>
       </c>
       <c r="G11">
         <v>23</v>
